--- a/ope.ed.gov/2008/disciplinary-actions-on-campus-virginia-colleges-and-universities-crime-2008.xlsx
+++ b/ope.ed.gov/2008/disciplinary-actions-on-campus-virginia-colleges-and-universities-crime-2008.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Disciplinary_Actions_On_campus" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="disciplinary-actions-on-campus-" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Disciplinary Actions - On campus</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,13 +31,13 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Illegal weapons possession</t>
-  </si>
-  <si>
-    <t>Drug law violations</t>
-  </si>
-  <si>
-    <t>Liquor law violations</t>
+    <t>Illegal Weapons Possession</t>
+  </si>
+  <si>
+    <t>Drug Law Violations</t>
+  </si>
+  <si>
+    <t>Liquor Law Violations</t>
   </si>
   <si>
     <t>ACT College</t>
@@ -1483,34 +1480,58 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2008.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c s="1" r="F2">
+        <v>498.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -1521,13 +1542,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c s="1" r="D3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c s="1" r="F3">
         <v>498.0</v>
@@ -1550,13 +1571,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c s="1" r="D4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c s="1" r="F4">
         <v>498.0</v>
@@ -1576,19 +1597,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B5">
-        <v>419022.0</v>
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c s="1" r="D5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c s="1" r="F5">
-        <v>498.0</v>
+        <v>586.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -1608,13 +1629,13 @@
         <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F6">
         <v>586.0</v>
@@ -1634,19 +1655,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B7">
-        <v>231411.0</v>
+        <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D7">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F7">
-        <v>586.0</v>
+        <v>4644.0</v>
       </c>
       <c s="1" r="G7">
         <v>0.0</v>
@@ -1666,13 +1687,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F8">
         <v>4644.0</v>
@@ -1695,13 +1716,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D9">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F9">
         <v>4644.0</v>
@@ -1724,13 +1745,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F10">
         <v>4644.0</v>
@@ -1753,13 +1774,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D11">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F11">
         <v>4644.0</v>
@@ -1782,13 +1803,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D12">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F12">
         <v>4644.0</v>
@@ -1811,13 +1832,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D13">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F13">
         <v>4644.0</v>
@@ -1840,13 +1861,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D14">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F14">
         <v>4644.0</v>
@@ -1869,13 +1890,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D15">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F15">
         <v>4644.0</v>
@@ -1898,13 +1919,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D16">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F16">
         <v>4644.0</v>
@@ -1927,13 +1948,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D17">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F17">
         <v>4644.0</v>
@@ -1956,13 +1977,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D18">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F18">
         <v>4644.0</v>
@@ -1982,19 +2003,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B19">
-        <v>232797.0</v>
+        <v>432348.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D19">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F19">
-        <v>4644.0</v>
+        <v>350.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -2011,19 +2032,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B20">
-        <v>432348.0</v>
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D20">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F20">
-        <v>350.0</v>
+        <v>1137.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -2040,28 +2061,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B21">
-        <v>419457.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F21">
-        <v>1137.0</v>
+        <v>842.0</v>
       </c>
       <c s="1" r="G21">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H21">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I21">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="22">
@@ -2069,28 +2090,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B22">
-        <v>231420.0</v>
+        <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F22">
-        <v>842.0</v>
+        <v>1664.0</v>
       </c>
       <c s="1" r="G22">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H22">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I22">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -2101,13 +2122,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D23">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F23">
         <v>1664.0</v>
@@ -2130,13 +2151,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D24">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F24">
         <v>1664.0</v>
@@ -2159,13 +2180,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D25">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F25">
         <v>1664.0</v>
@@ -2185,19 +2206,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B26">
-        <v>449931.0</v>
+        <v>448257.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D26">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F26">
-        <v>1664.0</v>
+        <v>15.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -2214,19 +2235,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B27">
-        <v>448257.0</v>
+        <v>427973.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F27">
-        <v>15.0</v>
+        <v>201.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -2243,19 +2264,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B28">
-        <v>427973.0</v>
+        <v>445762.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F28">
-        <v>201.0</v>
+        <v>140.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -2272,19 +2293,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B29">
-        <v>445762.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F29">
-        <v>140.0</v>
+        <v>120.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -2301,19 +2322,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B30">
-        <v>366793.0</v>
+        <v>231280.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F30">
-        <v>120.0</v>
+        <v>73.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -2330,19 +2351,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B31">
-        <v>231280.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F31">
-        <v>73.0</v>
+        <v>4466.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -2359,19 +2380,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B32">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F32">
-        <v>4466.0</v>
+        <v>736.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -2388,19 +2409,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B33">
-        <v>231554.0</v>
+        <v>233356.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F33">
-        <v>736.0</v>
+        <v>310.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -2417,19 +2438,16 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B34">
-        <v>233356.0</v>
+        <v>233480.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>73</v>
-      </c>
-      <c s="1" r="F34">
-        <v>310.0</v>
+        <v>74</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -2446,25 +2464,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B35">
-        <v>233480.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c s="1" r="F35">
+        <v>1514.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
       </c>
       <c s="1" r="H35">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="I35">
-        <v>0.0</v>
+        <v>191.0</v>
       </c>
     </row>
     <row r="36">
@@ -2472,28 +2493,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B36">
-        <v>231581.0</v>
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F36">
-        <v>1514.0</v>
+        <v>560.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
       </c>
       <c s="1" r="H36">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I36">
-        <v>191.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -2501,19 +2522,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B37">
-        <v>231828.0</v>
+        <v>231785.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F37">
-        <v>560.0</v>
+        <v>595.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -2530,19 +2551,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B38">
-        <v>231785.0</v>
+        <v>441858.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F38">
-        <v>595.0</v>
+        <v>325.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -2559,19 +2580,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B39">
-        <v>441858.0</v>
+        <v>231688.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F39">
-        <v>325.0</v>
+        <v>47.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -2588,19 +2609,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B40">
-        <v>231688.0</v>
+        <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F40">
-        <v>47.0</v>
+        <v>5412.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -2620,13 +2641,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D41">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F41">
         <v>5412.0</v>
@@ -2649,13 +2670,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D42">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F42">
         <v>5412.0</v>
@@ -2678,13 +2699,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D43">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F43">
         <v>5412.0</v>
@@ -2707,13 +2728,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D44">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F44">
         <v>5412.0</v>
@@ -2733,19 +2754,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B45">
-        <v>231697.0</v>
+        <v>451592.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D45">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F45">
-        <v>5412.0</v>
+        <v>24.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -2762,19 +2783,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B46">
-        <v>451592.0</v>
+        <v>420024.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F46">
-        <v>24.0</v>
+        <v>158.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -2791,19 +2812,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B47">
-        <v>420024.0</v>
+        <v>377449.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F47">
-        <v>158.0</v>
+        <v>254.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -2820,19 +2841,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B48">
-        <v>377449.0</v>
+        <v>377458.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F48">
-        <v>254.0</v>
+        <v>202.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -2849,19 +2870,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B49">
-        <v>377458.0</v>
+        <v>427982.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D49">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F49">
-        <v>202.0</v>
+        <v>197.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -2878,19 +2899,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B50">
-        <v>427982.0</v>
+        <v>440378.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F50">
-        <v>197.0</v>
+        <v>89.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -2907,19 +2928,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B51">
-        <v>440378.0</v>
+        <v>232016.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F51">
-        <v>89.0</v>
+        <v>1277.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -2936,19 +2957,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B52">
-        <v>232016.0</v>
+        <v>427894.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F52">
-        <v>1277.0</v>
+        <v>173.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -2965,28 +2986,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B53">
-        <v>427894.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F53">
-        <v>173.0</v>
+        <v>4904.0</v>
       </c>
       <c s="1" r="G53">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="H53">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c s="1" r="I53">
-        <v>0.0</v>
+        <v>267.0</v>
       </c>
     </row>
     <row r="54">
@@ -2994,28 +3015,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B54">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D54">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F54">
-        <v>4904.0</v>
+        <v>7892.0</v>
       </c>
       <c s="1" r="G54">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H54">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="I54">
-        <v>267.0</v>
+        <v>164.0</v>
       </c>
     </row>
     <row r="55">
@@ -3023,28 +3044,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B55">
-        <v>231624.0</v>
+        <v>446206.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D55">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F55">
-        <v>7892.0</v>
+        <v>17.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
       </c>
       <c s="1" r="H55">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I55">
-        <v>164.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
@@ -3052,19 +3073,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B56">
-        <v>446206.0</v>
+        <v>231873.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D56">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F56">
-        <v>17.0</v>
+        <v>1272.0</v>
       </c>
       <c s="1" r="G56">
         <v>0.0</v>
@@ -3081,19 +3102,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B57">
-        <v>231873.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D57">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F57">
-        <v>1272.0</v>
+        <v>4026.0</v>
       </c>
       <c s="1" r="G57">
         <v>0.0</v>
@@ -3110,19 +3131,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B58">
-        <v>231882.0</v>
+        <v>232724.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D58">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F58">
-        <v>4026.0</v>
+        <v>82.0</v>
       </c>
       <c s="1" r="G58">
         <v>0.0</v>
@@ -3139,19 +3160,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B59">
-        <v>232724.0</v>
+        <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D59">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F59">
-        <v>82.0</v>
+        <v>916.0</v>
       </c>
       <c s="1" r="G59">
         <v>0.0</v>
@@ -3171,13 +3192,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D60">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F60">
         <v>916.0</v>
@@ -3197,19 +3218,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B61">
-        <v>440536.0</v>
+        <v>451617.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D61">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F61">
-        <v>916.0</v>
+        <v>24.0</v>
       </c>
       <c s="1" r="G61">
         <v>0.0</v>
@@ -3226,28 +3247,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B62">
-        <v>451617.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D62">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F62">
-        <v>24.0</v>
+        <v>1387.0</v>
       </c>
       <c s="1" r="G62">
         <v>0.0</v>
       </c>
       <c s="1" r="H62">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I62">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="63">
@@ -3255,28 +3276,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B63">
-        <v>232043.0</v>
+        <v>232052.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D63">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F63">
-        <v>1387.0</v>
+        <v>939.0</v>
       </c>
       <c s="1" r="G63">
         <v>0.0</v>
       </c>
       <c s="1" r="H63">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I63">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
@@ -3284,19 +3305,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B64">
-        <v>232052.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D64">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F64">
-        <v>939.0</v>
+        <v>747.0</v>
       </c>
       <c s="1" r="G64">
         <v>0.0</v>
@@ -3313,19 +3334,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B65">
-        <v>231970.0</v>
+        <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D65">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F65">
-        <v>747.0</v>
+        <v>605.0</v>
       </c>
       <c s="1" r="G65">
         <v>0.0</v>
@@ -3345,13 +3366,13 @@
         <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D66">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F66">
         <v>605.0</v>
@@ -3371,19 +3392,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B67">
-        <v>248943.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D67">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F67">
-        <v>605.0</v>
+        <v>8543.0</v>
       </c>
       <c s="1" r="G67">
         <v>0.0</v>
@@ -3403,13 +3424,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D68">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F68">
         <v>8543.0</v>
@@ -3432,13 +3453,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D69">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F69">
         <v>8543.0</v>
@@ -3461,13 +3482,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D70">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F70">
         <v>8543.0</v>
@@ -3490,13 +3511,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D71">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F71">
         <v>8543.0</v>
@@ -3519,13 +3540,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D72">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F72">
         <v>8543.0</v>
@@ -3548,13 +3569,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D73">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F73">
         <v>8543.0</v>
@@ -3577,13 +3598,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D74">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F74">
         <v>8543.0</v>
@@ -3606,13 +3627,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D75">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F75">
         <v>8543.0</v>
@@ -3635,13 +3656,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D76">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F76">
         <v>8543.0</v>
@@ -3664,13 +3685,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D77">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F77">
         <v>8543.0</v>
@@ -3693,13 +3714,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D78">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F78">
         <v>8543.0</v>
@@ -3722,13 +3743,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D79">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F79">
         <v>8543.0</v>
@@ -3751,13 +3772,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C80">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D80">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c t="s" s="1" r="E80">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F80">
         <v>8543.0</v>
@@ -3780,13 +3801,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C81">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D81">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c t="s" s="1" r="E81">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F81">
         <v>8543.0</v>
@@ -3806,19 +3827,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B82">
-        <v>248934.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C82">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D82">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E82">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F82">
-        <v>8543.0</v>
+        <v>676.0</v>
       </c>
       <c s="1" r="G82">
         <v>0.0</v>
@@ -3835,28 +3856,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B83">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C83">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D83">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E83">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F83">
-        <v>676.0</v>
+        <v>1015.0</v>
       </c>
       <c s="1" r="G83">
         <v>0.0</v>
       </c>
       <c s="1" r="H83">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I83">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="84">
@@ -3864,28 +3885,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B84">
-        <v>232025.0</v>
+        <v>444282.0</v>
       </c>
       <c t="s" s="1" r="C84">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D84">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E84">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F84">
-        <v>1015.0</v>
+        <v>88.0</v>
       </c>
       <c s="1" r="G84">
         <v>0.0</v>
       </c>
       <c s="1" r="H84">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I84">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
@@ -3893,19 +3914,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B85">
-        <v>444282.0</v>
+        <v>450599.0</v>
       </c>
       <c t="s" s="1" r="C85">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="1" r="D85">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E85">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c s="1" r="F85">
-        <v>88.0</v>
+        <v>145.0</v>
       </c>
       <c s="1" r="G85">
         <v>0.0</v>
@@ -3922,19 +3943,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B86">
-        <v>450599.0</v>
+        <v>442310.0</v>
       </c>
       <c t="s" s="1" r="C86">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c s="1" r="D86">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E86">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c s="1" r="F86">
-        <v>145.0</v>
+        <v>919.0</v>
       </c>
       <c s="1" r="G86">
         <v>0.0</v>
@@ -3951,19 +3972,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B87">
-        <v>442310.0</v>
+        <v>438647.0</v>
       </c>
       <c t="s" s="1" r="C87">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="1" r="D87">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E87">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="1" r="F87">
-        <v>919.0</v>
+        <v>895.0</v>
       </c>
       <c s="1" r="G87">
         <v>0.0</v>
@@ -3980,19 +4001,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B88">
-        <v>438647.0</v>
+        <v>445470.0</v>
       </c>
       <c t="s" s="1" r="C88">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c s="1" r="D88">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E88">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="1" r="F88">
-        <v>895.0</v>
+        <v>103.0</v>
       </c>
       <c s="1" r="G88">
         <v>0.0</v>
@@ -4009,19 +4030,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B89">
-        <v>445470.0</v>
+        <v>232502.0</v>
       </c>
       <c t="s" s="1" r="C89">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="1" r="D89">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E89">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="1" r="F89">
-        <v>103.0</v>
+        <v>136.0</v>
       </c>
       <c s="1" r="G89">
         <v>0.0</v>
@@ -4038,28 +4059,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B90">
-        <v>232502.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C90">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="1" r="D90">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E90">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="1" r="F90">
-        <v>136.0</v>
+        <v>1397.0</v>
       </c>
       <c s="1" r="G90">
         <v>0.0</v>
       </c>
       <c s="1" r="H90">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="I90">
-        <v>0.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="91">
@@ -4067,28 +4088,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B91">
-        <v>232089.0</v>
+        <v>233329.0</v>
       </c>
       <c t="s" s="1" r="C91">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="1" r="D91">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E91">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="1" r="F91">
-        <v>1397.0</v>
+        <v>307.0</v>
       </c>
       <c s="1" r="G91">
         <v>0.0</v>
       </c>
       <c s="1" r="H91">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I91">
-        <v>91.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
@@ -4096,19 +4117,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B92">
-        <v>233329.0</v>
+        <v>382957.0</v>
       </c>
       <c t="s" s="1" r="C92">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="1" r="D92">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E92">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="1" r="F92">
-        <v>307.0</v>
+        <v>196.0</v>
       </c>
       <c s="1" r="G92">
         <v>0.0</v>
@@ -4125,28 +4146,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B93">
-        <v>382957.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C93">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="1" r="D93">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E93">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="1" r="F93">
-        <v>196.0</v>
+        <v>30613.0</v>
       </c>
       <c s="1" r="G93">
         <v>0.0</v>
       </c>
       <c s="1" r="H93">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c s="1" r="I93">
-        <v>0.0</v>
+        <v>256.0</v>
       </c>
     </row>
     <row r="94">
@@ -4154,28 +4175,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B94">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C94">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="1" r="D94">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E94">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="1" r="F94">
-        <v>30613.0</v>
+        <v>6515.0</v>
       </c>
       <c s="1" r="G94">
         <v>0.0</v>
       </c>
       <c s="1" r="H94">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I94">
-        <v>256.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="95">
@@ -4186,13 +4207,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C95">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="1" r="D95">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E95">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="1" r="F95">
         <v>6515.0</v>
@@ -4215,13 +4236,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C96">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c s="1" r="D96">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E96">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="1" r="F96">
         <v>6515.0</v>
@@ -4241,19 +4262,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B97">
-        <v>232195.0</v>
+        <v>406495.0</v>
       </c>
       <c t="s" s="1" r="C97">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c s="1" r="D97">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E97">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="1" r="F97">
-        <v>6515.0</v>
+        <v>194.0</v>
       </c>
       <c s="1" r="G97">
         <v>0.0</v>
@@ -4270,28 +4291,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B98">
-        <v>406495.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C98">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c s="1" r="D98">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E98">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c s="1" r="F98">
-        <v>194.0</v>
+        <v>1120.0</v>
       </c>
       <c s="1" r="G98">
         <v>0.0</v>
       </c>
       <c s="1" r="H98">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="I98">
-        <v>0.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="99">
@@ -4299,28 +4320,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B99">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C99">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="1" r="D99">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E99">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c s="1" r="F99">
-        <v>1120.0</v>
+        <v>5427.0</v>
       </c>
       <c s="1" r="G99">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="H99">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="I99">
-        <v>64.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="100">
@@ -4331,25 +4352,25 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C100">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="1" r="D100">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E100">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="1" r="F100">
         <v>5427.0</v>
       </c>
       <c s="1" r="G100">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H100">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I100">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="101">
@@ -4360,13 +4381,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C101">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c s="1" r="D101">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E101">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c s="1" r="F101">
         <v>5427.0</v>
@@ -4386,19 +4407,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B102">
-        <v>232265.0</v>
+        <v>431266.0</v>
       </c>
       <c t="s" s="1" r="C102">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c s="1" r="D102">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E102">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="1" r="F102">
-        <v>5427.0</v>
+        <v>131.0</v>
       </c>
       <c s="1" r="G102">
         <v>0.0</v>
@@ -4415,19 +4436,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B103">
-        <v>431266.0</v>
+        <v>377421.0</v>
       </c>
       <c t="s" s="1" r="C103">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="1" r="D103">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E103">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="1" r="F103">
-        <v>131.0</v>
+        <v>369.0</v>
       </c>
       <c s="1" r="G103">
         <v>0.0</v>
@@ -4444,28 +4465,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B104">
-        <v>377421.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C104">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c s="1" r="D104">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E104">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="1" r="F104">
-        <v>369.0</v>
+        <v>1058.0</v>
       </c>
       <c s="1" r="G104">
         <v>0.0</v>
       </c>
       <c s="1" r="H104">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I104">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="105">
@@ -4473,28 +4494,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B105">
-        <v>232308.0</v>
+        <v>445869.0</v>
       </c>
       <c t="s" s="1" r="C105">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c s="1" r="D105">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E105">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c s="1" r="F105">
-        <v>1058.0</v>
+        <v>62.0</v>
       </c>
       <c s="1" r="G105">
         <v>0.0</v>
       </c>
       <c s="1" r="H105">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I105">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="106">
@@ -4502,19 +4523,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B106">
-        <v>445869.0</v>
+        <v>441964.0</v>
       </c>
       <c t="s" s="1" r="C106">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c s="1" r="D106">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E106">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c s="1" r="F106">
-        <v>62.0</v>
+        <v>464.0</v>
       </c>
       <c s="1" r="G106">
         <v>0.0</v>
@@ -4531,19 +4552,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B107">
-        <v>441964.0</v>
+        <v>368601.0</v>
       </c>
       <c t="s" s="1" r="C107">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c s="1" r="D107">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E107">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c s="1" r="F107">
-        <v>464.0</v>
+        <v>900.0</v>
       </c>
       <c s="1" r="G107">
         <v>0.0</v>
@@ -4560,19 +4581,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B108">
-        <v>368601.0</v>
+        <v>437051.0</v>
       </c>
       <c t="s" s="1" r="C108">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="1" r="D108">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E108">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c s="1" r="F108">
-        <v>900.0</v>
+        <v>659.0</v>
       </c>
       <c s="1" r="G108">
         <v>0.0</v>
@@ -4589,19 +4610,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B109">
-        <v>437051.0</v>
+        <v>441955.0</v>
       </c>
       <c t="s" s="1" r="C109">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c s="1" r="D109">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E109">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c s="1" r="F109">
-        <v>659.0</v>
+        <v>685.0</v>
       </c>
       <c s="1" r="G109">
         <v>0.0</v>
@@ -4618,28 +4639,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B110">
-        <v>441955.0</v>
+        <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C110">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c s="1" r="D110">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E110">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c s="1" r="F110">
-        <v>685.0</v>
+        <v>13079.0</v>
       </c>
       <c s="1" r="G110">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="H110">
         <v>0.0</v>
       </c>
       <c s="1" r="I110">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="111">
@@ -4650,25 +4671,25 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C111">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c s="1" r="D111">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E111">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="1" r="F111">
         <v>13079.0</v>
       </c>
       <c s="1" r="G111">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H111">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I111">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="112">
@@ -4679,22 +4700,22 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C112">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c s="1" r="D112">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E112">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c s="1" r="F112">
         <v>13079.0</v>
       </c>
       <c s="1" r="G112">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H112">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I112">
         <v>0.0</v>
@@ -4705,28 +4726,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B113">
-        <v>232414.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C113">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c s="1" r="D113">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E113">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c s="1" r="F113">
-        <v>13079.0</v>
+        <v>18454.0</v>
       </c>
       <c s="1" r="G113">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="H113">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c s="1" r="I113">
-        <v>0.0</v>
+        <v>573.0</v>
       </c>
     </row>
     <row r="114">
@@ -4737,25 +4758,25 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C114">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c s="1" r="D114">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E114">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c s="1" r="F114">
         <v>18454.0</v>
       </c>
       <c s="1" r="G114">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H114">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I114">
-        <v>573.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="115">
@@ -4766,13 +4787,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C115">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c s="1" r="D115">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E115">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="1" r="F115">
         <v>18454.0</v>
@@ -4795,13 +4816,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C116">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="1" r="D116">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E116">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="1" r="F116">
         <v>18454.0</v>
@@ -4821,19 +4842,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B117">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C117">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="1" r="D117">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E117">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c s="1" r="F117">
-        <v>18454.0</v>
+        <v>995.0</v>
       </c>
       <c s="1" r="G117">
         <v>0.0</v>
@@ -4842,7 +4863,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I117">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="118">
@@ -4850,19 +4871,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B118">
-        <v>231837.0</v>
+        <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C118">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c s="1" r="D118">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E118">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="1" r="F118">
-        <v>995.0</v>
+        <v>8776.0</v>
       </c>
       <c s="1" r="G118">
         <v>0.0</v>
@@ -4871,7 +4892,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I118">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="119">
@@ -4882,13 +4903,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C119">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="1" r="D119">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E119">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="1" r="F119">
         <v>8776.0</v>
@@ -4911,13 +4932,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C120">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c s="1" r="D120">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E120">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c s="1" r="F120">
         <v>8776.0</v>
@@ -4940,13 +4961,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C121">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c s="1" r="D121">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E121">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="1" r="F121">
         <v>8776.0</v>
@@ -4966,28 +4987,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B122">
-        <v>232450.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C122">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="1" r="D122">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E122">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="1" r="F122">
-        <v>8776.0</v>
+        <v>33604.0</v>
       </c>
       <c s="1" r="G122">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="H122">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c s="1" r="I122">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="123">
@@ -4995,28 +5016,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B123">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C123">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="1" r="D123">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E123">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c s="1" r="F123">
-        <v>33604.0</v>
+        <v>4727.0</v>
       </c>
       <c s="1" r="G123">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H123">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c s="1" r="I123">
-        <v>20.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="124">
@@ -5024,28 +5045,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B124">
-        <v>232566.0</v>
+        <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C124">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="1" r="D124">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E124">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="1" r="F124">
-        <v>4727.0</v>
+        <v>5867.0</v>
       </c>
       <c s="1" r="G124">
         <v>0.0</v>
       </c>
       <c s="1" r="H124">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I124">
-        <v>217.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="125">
@@ -5056,13 +5077,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C125">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c s="1" r="D125">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E125">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c s="1" r="F125">
         <v>5867.0</v>
@@ -5082,28 +5103,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B126">
-        <v>232575.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C126">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c s="1" r="D126">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E126">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c s="1" r="F126">
-        <v>5867.0</v>
+        <v>2572.0</v>
       </c>
       <c s="1" r="G126">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="H126">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c s="1" r="I126">
-        <v>0.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="127">
@@ -5111,28 +5132,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B127">
-        <v>232609.0</v>
+        <v>232618.0</v>
       </c>
       <c t="s" s="1" r="C127">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c s="1" r="D127">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E127">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c s="1" r="F127">
-        <v>2572.0</v>
+        <v>183.0</v>
       </c>
       <c s="1" r="G127">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H127">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I127">
-        <v>107.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="128">
@@ -5140,19 +5161,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B128">
-        <v>232618.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C128">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c s="1" r="D128">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E128">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c s="1" r="F128">
-        <v>183.0</v>
+        <v>1738.0</v>
       </c>
       <c s="1" r="G128">
         <v>0.0</v>
@@ -5169,28 +5190,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B129">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C129">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c s="1" r="D129">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E129">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c s="1" r="F129">
-        <v>1738.0</v>
+        <v>3548.0</v>
       </c>
       <c s="1" r="G129">
         <v>0.0</v>
       </c>
       <c s="1" r="H129">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="I129">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="130">
@@ -5198,28 +5219,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B130">
-        <v>232706.0</v>
+        <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C130">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c s="1" r="D130">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E130">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c s="1" r="F130">
-        <v>3548.0</v>
+        <v>319.0</v>
       </c>
       <c s="1" r="G130">
         <v>0.0</v>
       </c>
       <c s="1" r="H130">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I130">
-        <v>46.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="131">
@@ -5230,13 +5251,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C131">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c s="1" r="D131">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E131">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="1" r="F131">
         <v>319.0</v>
@@ -5259,13 +5280,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C132">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c s="1" r="D132">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E132">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="1" r="F132">
         <v>319.0</v>
@@ -5285,19 +5306,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B133">
-        <v>231642.0</v>
+        <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C133">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c s="1" r="D133">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E133">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="1" r="F133">
-        <v>319.0</v>
+        <v>899.0</v>
       </c>
       <c s="1" r="G133">
         <v>0.0</v>
@@ -5317,13 +5338,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C134">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="1" r="D134">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E134">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="1" r="F134">
         <v>899.0</v>
@@ -5346,13 +5367,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C135">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="1" r="D135">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E135">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="1" r="F135">
         <v>899.0</v>
@@ -5372,19 +5393,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B136">
-        <v>131742.0</v>
+        <v>233091.0</v>
       </c>
       <c t="s" s="1" r="C136">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="1" r="D136">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E136">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c s="1" r="F136">
-        <v>899.0</v>
+        <v>334.0</v>
       </c>
       <c s="1" r="G136">
         <v>0.0</v>
@@ -5401,19 +5422,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B137">
-        <v>233091.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C137">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c s="1" r="D137">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E137">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c s="1" r="F137">
-        <v>334.0</v>
+        <v>3075.0</v>
       </c>
       <c s="1" r="G137">
         <v>0.0</v>
@@ -5430,19 +5451,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B138">
-        <v>232788.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C138">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c s="1" r="D138">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E138">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c s="1" r="F138">
-        <v>3075.0</v>
+        <v>4889.0</v>
       </c>
       <c s="1" r="G138">
         <v>0.0</v>
@@ -5459,28 +5480,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B139">
-        <v>232867.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C139">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c s="1" r="D139">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E139">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="1" r="F139">
-        <v>4889.0</v>
+        <v>6325.0</v>
       </c>
       <c s="1" r="G139">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c s="1" r="H139">
-        <v>0.0</v>
+        <v>56.0</v>
       </c>
       <c s="1" r="I139">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="140">
@@ -5488,28 +5509,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B140">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C140">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c s="1" r="D140">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E140">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="1" r="F140">
-        <v>6325.0</v>
+        <v>42663.0</v>
       </c>
       <c s="1" r="G140">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H140">
-        <v>56.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I140">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="141">
@@ -5520,13 +5541,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C141">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c s="1" r="D141">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E141">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c s="1" r="F141">
         <v>42663.0</v>
@@ -5549,13 +5570,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C142">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c s="1" r="D142">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E142">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c s="1" r="F142">
         <v>42663.0</v>
@@ -5578,13 +5599,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C143">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c s="1" r="D143">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E143">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c s="1" r="F143">
         <v>42663.0</v>
@@ -5607,13 +5628,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C144">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c s="1" r="D144">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E144">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c s="1" r="F144">
         <v>42663.0</v>
@@ -5636,13 +5657,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C145">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c s="1" r="D145">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E145">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c s="1" r="F145">
         <v>42663.0</v>
@@ -5662,28 +5683,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B146">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C146">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c s="1" r="D146">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="1" r="E146">
+        <v>298</v>
+      </c>
+      <c s="1" r="F146">
+        <v>23086.0</v>
+      </c>
+      <c s="1" r="G146">
         <v>6.0</v>
       </c>
-      <c t="s" s="1" r="E146">
-        <v>297</v>
-      </c>
-      <c s="1" r="F146">
-        <v>42663.0</v>
-      </c>
-      <c s="1" r="G146">
-        <v>0.0</v>
-      </c>
       <c s="1" r="H146">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c s="1" r="I146">
-        <v>0.0</v>
+        <v>126.0</v>
       </c>
     </row>
     <row r="147">
@@ -5691,28 +5712,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B147">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C147">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c s="1" r="D147">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E147">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c s="1" r="F147">
-        <v>23086.0</v>
+        <v>3109.0</v>
       </c>
       <c s="1" r="G147">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H147">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I147">
-        <v>126.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="148">
@@ -5720,19 +5741,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B148">
-        <v>233019.0</v>
+        <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C148">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c s="1" r="D148">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E148">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c s="1" r="F148">
-        <v>3109.0</v>
+        <v>1628.0</v>
       </c>
       <c s="1" r="G148">
         <v>0.0</v>
@@ -5752,13 +5773,13 @@
         <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C149">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c s="1" r="D149">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E149">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c s="1" r="F149">
         <v>1628.0</v>
@@ -5778,19 +5799,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B150">
-        <v>233037.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C150">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c s="1" r="D150">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E150">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c s="1" r="F150">
-        <v>1628.0</v>
+        <v>4874.0</v>
       </c>
       <c s="1" r="G150">
         <v>0.0</v>
@@ -5807,28 +5828,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B151">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C151">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c s="1" r="D151">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E151">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c s="1" r="F151">
-        <v>4874.0</v>
+        <v>9157.0</v>
       </c>
       <c s="1" r="G151">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="H151">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="I151">
-        <v>0.0</v>
+        <v>127.0</v>
       </c>
     </row>
     <row r="152">
@@ -5836,28 +5857,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B152">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C152">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c s="1" r="D152">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E152">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c s="1" r="F152">
-        <v>9157.0</v>
+        <v>568.0</v>
       </c>
       <c s="1" r="G152">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H152">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I152">
-        <v>127.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="153">
@@ -5865,28 +5886,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B153">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C153">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c s="1" r="D153">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E153">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c s="1" r="F153">
-        <v>568.0</v>
+        <v>1201.0</v>
       </c>
       <c s="1" r="G153">
         <v>0.0</v>
       </c>
       <c s="1" r="H153">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I153">
-        <v>27.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="154">
@@ -5894,28 +5915,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B154">
-        <v>233295.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C154">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c s="1" r="D154">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E154">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c s="1" r="F154">
-        <v>1201.0</v>
+        <v>3307.0</v>
       </c>
       <c s="1" r="G154">
         <v>0.0</v>
       </c>
       <c s="1" r="H154">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I154">
-        <v>82.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="155">
@@ -5926,13 +5947,13 @@
         <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C155">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c s="1" r="D155">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E155">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c s="1" r="F155">
         <v>3307.0</v>
@@ -5952,19 +5973,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B156">
-        <v>233310.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C156">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c s="1" r="D156">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E156">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c s="1" r="F156">
-        <v>3307.0</v>
+        <v>4278.0</v>
       </c>
       <c s="1" r="G156">
         <v>0.0</v>
@@ -5981,28 +6002,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B157">
-        <v>231651.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C157">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c s="1" r="D157">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E157">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c s="1" r="F157">
-        <v>4278.0</v>
+        <v>1634.0</v>
       </c>
       <c s="1" r="G157">
         <v>0.0</v>
       </c>
       <c s="1" r="H157">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="I157">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="158">
@@ -6010,28 +6031,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B158">
-        <v>233338.0</v>
+        <v>437769.0</v>
       </c>
       <c t="s" s="1" r="C158">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c s="1" r="D158">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E158">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c s="1" r="F158">
-        <v>1634.0</v>
+        <v>440.0</v>
       </c>
       <c s="1" r="G158">
         <v>0.0</v>
       </c>
       <c s="1" r="H158">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I158">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="159">
@@ -6039,19 +6060,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B159">
-        <v>437769.0</v>
+        <v>233408.0</v>
       </c>
       <c t="s" s="1" r="C159">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c s="1" r="D159">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E159">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c s="1" r="F159">
-        <v>440.0</v>
+        <v>282.0</v>
       </c>
       <c s="1" r="G159">
         <v>0.0</v>
@@ -6068,28 +6089,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B160">
-        <v>233408.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C160">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c s="1" r="D160">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E160">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c s="1" r="F160">
-        <v>282.0</v>
+        <v>2021.0</v>
       </c>
       <c s="1" r="G160">
         <v>0.0</v>
       </c>
       <c s="1" r="H160">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="I160">
-        <v>0.0</v>
+        <v>287.0</v>
       </c>
     </row>
     <row r="161">
@@ -6097,28 +6118,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B161">
-        <v>233426.0</v>
+        <v>441876.0</v>
       </c>
       <c t="s" s="1" r="C161">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c s="1" r="D161">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E161">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c s="1" r="F161">
-        <v>2021.0</v>
+        <v>169.0</v>
       </c>
       <c s="1" r="G161">
         <v>0.0</v>
       </c>
       <c s="1" r="H161">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I161">
-        <v>287.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="162">
@@ -6126,25 +6147,25 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B162">
-        <v>441876.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C162">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c s="1" r="D162">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E162">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c s="1" r="F162">
-        <v>169.0</v>
+        <v>644.0</v>
       </c>
       <c s="1" r="G162">
         <v>0.0</v>
       </c>
       <c s="1" r="H162">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I162">
         <v>0.0</v>
@@ -6155,25 +6176,25 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B163">
-        <v>233499.0</v>
+        <v>234216.0</v>
       </c>
       <c t="s" s="1" r="C163">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c s="1" r="D163">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E163">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c s="1" r="F163">
-        <v>644.0</v>
+        <v>568.0</v>
       </c>
       <c s="1" r="G163">
         <v>0.0</v>
       </c>
       <c s="1" r="H163">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I163">
         <v>0.0</v>
@@ -6184,19 +6205,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B164">
-        <v>234216.0</v>
+        <v>232885.0</v>
       </c>
       <c t="s" s="1" r="C164">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c s="1" r="D164">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E164">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c s="1" r="F164">
-        <v>568.0</v>
+        <v>379.0</v>
       </c>
       <c s="1" r="G164">
         <v>0.0</v>
@@ -6213,28 +6234,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B165">
-        <v>232885.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C165">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c s="1" r="D165">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E165">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c s="1" r="F165">
-        <v>379.0</v>
+        <v>3511.0</v>
       </c>
       <c s="1" r="G165">
         <v>0.0</v>
       </c>
       <c s="1" r="H165">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c s="1" r="I165">
-        <v>0.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="166">
@@ -6242,28 +6263,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B166">
-        <v>233541.0</v>
+        <v>261931.0</v>
       </c>
       <c t="s" s="1" r="C166">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c s="1" r="D166">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E166">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c s="1" r="F166">
-        <v>3511.0</v>
+        <v>374.0</v>
       </c>
       <c s="1" r="G166">
         <v>0.0</v>
       </c>
       <c s="1" r="H166">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I166">
-        <v>53.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="167">
@@ -6271,19 +6292,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B167">
-        <v>261931.0</v>
+        <v>451608.0</v>
       </c>
       <c t="s" s="1" r="C167">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c s="1" r="D167">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E167">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c s="1" r="F167">
-        <v>374.0</v>
+        <v>39.0</v>
       </c>
       <c s="1" r="G167">
         <v>0.0</v>
@@ -6300,28 +6321,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B168">
-        <v>451608.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C168">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c s="1" r="D168">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E168">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c s="1" r="F168">
-        <v>39.0</v>
+        <v>686.0</v>
       </c>
       <c s="1" r="G168">
         <v>0.0</v>
       </c>
       <c s="1" r="H168">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="I168">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="169">
@@ -6329,28 +6350,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B169">
-        <v>233611.0</v>
+        <v>233082.0</v>
       </c>
       <c t="s" s="1" r="C169">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c s="1" r="D169">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E169">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c s="1" r="F169">
-        <v>686.0</v>
+        <v>171.0</v>
       </c>
       <c s="1" r="G169">
         <v>0.0</v>
       </c>
       <c s="1" r="H169">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I169">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="170">
@@ -6358,19 +6379,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B170">
-        <v>233082.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C170">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c s="1" r="D170">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E170">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c s="1" r="F170">
-        <v>171.0</v>
+        <v>5606.0</v>
       </c>
       <c s="1" r="G170">
         <v>0.0</v>
@@ -6387,19 +6408,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B171">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C171">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c s="1" r="D171">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E171">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c s="1" r="F171">
-        <v>5606.0</v>
+        <v>3984.0</v>
       </c>
       <c s="1" r="G171">
         <v>0.0</v>
@@ -6416,19 +6437,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B172">
-        <v>233648.0</v>
+        <v>233657.0</v>
       </c>
       <c t="s" s="1" r="C172">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c s="1" r="D172">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E172">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c s="1" r="F172">
-        <v>3984.0</v>
+        <v>106.0</v>
       </c>
       <c s="1" r="G172">
         <v>0.0</v>
@@ -6445,19 +6466,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B173">
-        <v>233657.0</v>
+        <v>233666.0</v>
       </c>
       <c t="s" s="1" r="C173">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c s="1" r="D173">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E173">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c s="1" r="F173">
-        <v>106.0</v>
+        <v>42.0</v>
       </c>
       <c s="1" r="G173">
         <v>0.0</v>
@@ -6474,19 +6495,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B174">
-        <v>233666.0</v>
+        <v>438498.0</v>
       </c>
       <c t="s" s="1" r="C174">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c s="1" r="D174">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E174">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c s="1" r="F174">
-        <v>42.0</v>
+        <v>1468.0</v>
       </c>
       <c s="1" r="G174">
         <v>0.0</v>
@@ -6503,19 +6524,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B175">
-        <v>438498.0</v>
+        <v>231721.0</v>
       </c>
       <c t="s" s="1" r="C175">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c s="1" r="D175">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E175">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c s="1" r="F175">
-        <v>1468.0</v>
+        <v>53.0</v>
       </c>
       <c s="1" r="G175">
         <v>0.0</v>
@@ -6532,19 +6553,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B176">
-        <v>231721.0</v>
+        <v>232593.0</v>
       </c>
       <c t="s" s="1" r="C176">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c s="1" r="D176">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E176">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c s="1" r="F176">
-        <v>53.0</v>
+        <v>12.0</v>
       </c>
       <c s="1" r="G176">
         <v>0.0</v>
@@ -6561,28 +6582,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B177">
-        <v>232593.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C177">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c s="1" r="D177">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E177">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c s="1" r="F177">
-        <v>12.0</v>
+        <v>828.0</v>
       </c>
       <c s="1" r="G177">
         <v>0.0</v>
       </c>
       <c s="1" r="H177">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I177">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="178">
@@ -6590,28 +6611,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B178">
-        <v>233718.0</v>
+        <v>233286.0</v>
       </c>
       <c t="s" s="1" r="C178">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c s="1" r="D178">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E178">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c s="1" r="F178">
-        <v>828.0</v>
+        <v>33.0</v>
       </c>
       <c s="1" r="G178">
         <v>0.0</v>
       </c>
       <c s="1" r="H178">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I178">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="179">
@@ -6619,25 +6640,25 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B179">
-        <v>233286.0</v>
+        <v>444884.0</v>
       </c>
       <c t="s" s="1" r="C179">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c s="1" r="D179">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E179">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c s="1" r="F179">
-        <v>33.0</v>
+        <v>12.0</v>
       </c>
       <c s="1" r="G179">
         <v>0.0</v>
       </c>
       <c s="1" r="H179">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I179">
         <v>0.0</v>
@@ -6648,25 +6669,25 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B180">
-        <v>444884.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C180">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c s="1" r="D180">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E180">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c s="1" r="F180">
-        <v>12.0</v>
+        <v>1892.0</v>
       </c>
       <c s="1" r="G180">
         <v>0.0</v>
       </c>
       <c s="1" r="H180">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I180">
         <v>0.0</v>
@@ -6677,19 +6698,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B181">
-        <v>440341.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C181">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c s="1" r="D181">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E181">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c s="1" r="F181">
-        <v>1892.0</v>
+        <v>1964.0</v>
       </c>
       <c s="1" r="G181">
         <v>0.0</v>
@@ -6698,7 +6719,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I181">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="182">
@@ -6706,19 +6727,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B182">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C182">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c s="1" r="D182">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E182">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c s="1" r="F182">
-        <v>1964.0</v>
+        <v>10557.0</v>
       </c>
       <c s="1" r="G182">
         <v>0.0</v>
@@ -6727,7 +6748,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I182">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="183">
@@ -6735,19 +6756,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B183">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C183">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c s="1" r="D183">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E183">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c s="1" r="F183">
-        <v>10557.0</v>
+        <v>26898.0</v>
       </c>
       <c s="1" r="G183">
         <v>0.0</v>
@@ -6767,13 +6788,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C184">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c s="1" r="D184">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E184">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c s="1" r="F184">
         <v>26898.0</v>
@@ -6796,13 +6817,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C185">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c s="1" r="D185">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E185">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c s="1" r="F185">
         <v>26898.0</v>
@@ -6825,13 +6846,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C186">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c s="1" r="D186">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E186">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c s="1" r="F186">
         <v>26898.0</v>
@@ -6840,7 +6861,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H186">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I186">
         <v>0.0</v>
@@ -6854,13 +6875,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C187">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c s="1" r="D187">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E187">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c s="1" r="F187">
         <v>26898.0</v>
@@ -6869,7 +6890,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H187">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I187">
         <v>0.0</v>
@@ -6880,19 +6901,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B188">
-        <v>233772.0</v>
+        <v>232919.0</v>
       </c>
       <c t="s" s="1" r="C188">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c s="1" r="D188">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E188">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c s="1" r="F188">
-        <v>26898.0</v>
+        <v>114.0</v>
       </c>
       <c s="1" r="G188">
         <v>0.0</v>
@@ -6909,19 +6930,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B189">
-        <v>232919.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C189">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c s="1" r="D189">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E189">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c s="1" r="F189">
-        <v>114.0</v>
+        <v>344.0</v>
       </c>
       <c s="1" r="G189">
         <v>0.0</v>
@@ -6941,13 +6962,13 @@
         <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C190">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c s="1" r="D190">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E190">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c s="1" r="F190">
         <v>344.0</v>
@@ -6967,28 +6988,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B191">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C191">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c s="1" r="D191">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="1" r="E191">
+        <v>388</v>
+      </c>
+      <c s="1" r="F191">
+        <v>5084.0</v>
+      </c>
+      <c s="1" r="G191">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H191">
         <v>2.0</v>
       </c>
-      <c t="s" s="1" r="E191">
-        <v>387</v>
-      </c>
-      <c s="1" r="F191">
-        <v>344.0</v>
-      </c>
-      <c s="1" r="G191">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H191">
-        <v>0.0</v>
-      </c>
       <c s="1" r="I191">
-        <v>0.0</v>
+        <v>242.0</v>
       </c>
     </row>
     <row r="192">
@@ -6996,28 +7017,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B192">
-        <v>232681.0</v>
+        <v>442189.0</v>
       </c>
       <c t="s" s="1" r="C192">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c s="1" r="D192">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E192">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c s="1" r="F192">
-        <v>5084.0</v>
+        <v>441.0</v>
       </c>
       <c s="1" r="G192">
         <v>0.0</v>
       </c>
       <c s="1" r="H192">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I192">
-        <v>242.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="193">
@@ -7025,19 +7046,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B193">
-        <v>442189.0</v>
+        <v>446756.0</v>
       </c>
       <c t="s" s="1" r="C193">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c s="1" r="D193">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E193">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c s="1" r="F193">
-        <v>441.0</v>
+        <v>117.0</v>
       </c>
       <c s="1" r="G193">
         <v>0.0</v>
@@ -7054,28 +7075,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B194">
-        <v>446756.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C194">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c s="1" r="D194">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E194">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c s="1" r="F194">
-        <v>117.0</v>
+        <v>4249.0</v>
       </c>
       <c s="1" r="G194">
         <v>0.0</v>
       </c>
       <c s="1" r="H194">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="I194">
-        <v>0.0</v>
+        <v>298.0</v>
       </c>
     </row>
     <row r="195">
@@ -7083,28 +7104,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B195">
-        <v>233374.0</v>
+        <v>442639.0</v>
       </c>
       <c t="s" s="1" r="C195">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c s="1" r="D195">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E195">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c s="1" r="F195">
-        <v>4249.0</v>
+        <v>149.0</v>
       </c>
       <c s="1" r="G195">
         <v>0.0</v>
       </c>
       <c s="1" r="H195">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I195">
-        <v>298.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="196">
@@ -7112,28 +7133,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B196">
-        <v>442639.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C196">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c s="1" r="D196">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E196">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c s="1" r="F196">
-        <v>149.0</v>
+        <v>24541.0</v>
       </c>
       <c s="1" r="G196">
         <v>0.0</v>
       </c>
       <c s="1" r="H196">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c s="1" r="I196">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="197">
@@ -7144,13 +7165,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C197">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c s="1" r="D197">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E197">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c s="1" r="F197">
         <v>24541.0</v>
@@ -7159,10 +7180,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H197">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I197">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="198">
@@ -7173,13 +7194,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C198">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c s="1" r="D198">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E198">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c s="1" r="F198">
         <v>24541.0</v>
@@ -7202,13 +7223,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C199">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c s="1" r="D199">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E199">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c s="1" r="F199">
         <v>24541.0</v>
@@ -7231,13 +7252,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C200">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c s="1" r="D200">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E200">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c s="1" r="F200">
         <v>24541.0</v>
@@ -7260,13 +7281,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C201">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c s="1" r="D201">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E201">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c s="1" r="F201">
         <v>24541.0</v>
@@ -7286,19 +7307,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B202">
-        <v>234076.0</v>
+        <v>377485.0</v>
       </c>
       <c t="s" s="1" r="C202">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c s="1" r="D202">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E202">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c s="1" r="F202">
-        <v>24541.0</v>
+        <v>27.0</v>
       </c>
       <c s="1" r="G202">
         <v>0.0</v>
@@ -7315,28 +7336,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B203">
-        <v>377485.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C203">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c s="1" r="D203">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E203">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c s="1" r="F203">
-        <v>27.0</v>
+        <v>32044.0</v>
       </c>
       <c s="1" r="G203">
         <v>0.0</v>
       </c>
       <c s="1" r="H203">
-        <v>0.0</v>
+        <v>61.0</v>
       </c>
       <c s="1" r="I203">
-        <v>0.0</v>
+        <v>229.0</v>
       </c>
     </row>
     <row r="204">
@@ -7347,13 +7368,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C204">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c s="1" r="D204">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E204">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c s="1" r="F204">
         <v>32044.0</v>
@@ -7362,10 +7383,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H204">
-        <v>61.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I204">
-        <v>229.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="205">
@@ -7373,19 +7394,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B205">
-        <v>234030.0</v>
+        <v>233903.0</v>
       </c>
       <c t="s" s="1" r="C205">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c s="1" r="D205">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E205">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c s="1" r="F205">
-        <v>32044.0</v>
+        <v>2650.0</v>
       </c>
       <c s="1" r="G205">
         <v>0.0</v>
@@ -7394,7 +7415,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I205">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="206">
@@ -7402,28 +7423,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B206">
-        <v>233903.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C206">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c s="1" r="D206">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E206">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c s="1" r="F206">
-        <v>2650.0</v>
+        <v>542.0</v>
       </c>
       <c s="1" r="G206">
         <v>0.0</v>
       </c>
       <c s="1" r="H206">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I206">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="207">
@@ -7431,28 +7452,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B207">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C207">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c s="1" r="D207">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E207">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c s="1" r="F207">
-        <v>542.0</v>
+        <v>1428.0</v>
       </c>
       <c s="1" r="G207">
         <v>0.0</v>
       </c>
       <c s="1" r="H207">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I207">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="208">
@@ -7460,28 +7481,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B208">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C208">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c s="1" r="D208">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E208">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c s="1" r="F208">
-        <v>1428.0</v>
+        <v>30739.0</v>
       </c>
       <c s="1" r="G208">
         <v>0.0</v>
       </c>
       <c s="1" r="H208">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c s="1" r="I208">
-        <v>9.0</v>
+        <v>572.0</v>
       </c>
     </row>
     <row r="209">
@@ -7492,13 +7513,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C209">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c s="1" r="D209">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E209">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c s="1" r="F209">
         <v>30739.0</v>
@@ -7507,10 +7528,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H209">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I209">
-        <v>572.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="210">
@@ -7521,13 +7542,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C210">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c s="1" r="D210">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E210">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c s="1" r="F210">
         <v>30739.0</v>
@@ -7550,13 +7571,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C211">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c s="1" r="D211">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E211">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c s="1" r="F211">
         <v>30739.0</v>
@@ -7579,13 +7600,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C212">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c s="1" r="D212">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E212">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c s="1" r="F212">
         <v>30739.0</v>
@@ -7608,13 +7629,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C213">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c s="1" r="D213">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E213">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c s="1" r="F213">
         <v>30739.0</v>
@@ -7637,13 +7658,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C214">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c s="1" r="D214">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E214">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c s="1" r="F214">
         <v>30739.0</v>
@@ -7666,13 +7687,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C215">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c s="1" r="D215">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E215">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c s="1" r="F215">
         <v>30739.0</v>
@@ -7692,19 +7713,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B216">
-        <v>233921.0</v>
+        <v>234119.0</v>
       </c>
       <c t="s" s="1" r="C216">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c s="1" r="D216">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E216">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c s="1" r="F216">
-        <v>30739.0</v>
+        <v>89.0</v>
       </c>
       <c s="1" r="G216">
         <v>0.0</v>
@@ -7721,19 +7742,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B217">
-        <v>234119.0</v>
+        <v>430254.0</v>
       </c>
       <c t="s" s="1" r="C217">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c s="1" r="D217">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E217">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c s="1" r="F217">
-        <v>89.0</v>
+        <v>156.0</v>
       </c>
       <c s="1" r="G217">
         <v>0.0</v>
@@ -7750,28 +7771,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B218">
-        <v>430254.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C218">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c s="1" r="D218">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E218">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c s="1" r="F218">
-        <v>156.0</v>
+        <v>5042.0</v>
       </c>
       <c s="1" r="G218">
         <v>0.0</v>
       </c>
       <c s="1" r="H218">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="I218">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="219">
@@ -7779,28 +7800,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B219">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C219">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c s="1" r="D219">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E219">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c s="1" r="F219">
-        <v>5042.0</v>
+        <v>1501.0</v>
       </c>
       <c s="1" r="G219">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H219">
         <v>4.0</v>
       </c>
       <c s="1" r="I219">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="220">
@@ -7808,28 +7829,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B220">
-        <v>234164.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C220">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c s="1" r="D220">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E220">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c s="1" r="F220">
-        <v>1501.0</v>
+        <v>267.0</v>
       </c>
       <c s="1" r="G220">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H220">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I220">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="221">
@@ -7837,28 +7858,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B221">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C221">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c s="1" r="D221">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E221">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c s="1" r="F221">
-        <v>267.0</v>
+        <v>1381.0</v>
       </c>
       <c s="1" r="G221">
         <v>0.0</v>
       </c>
       <c s="1" r="H221">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c s="1" r="I221">
-        <v>0.0</v>
+        <v>198.0</v>
       </c>
     </row>
     <row r="222">
@@ -7866,28 +7887,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B222">
-        <v>234173.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C222">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c s="1" r="D222">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E222">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c s="1" r="F222">
-        <v>1381.0</v>
+        <v>8532.0</v>
       </c>
       <c s="1" r="G222">
         <v>0.0</v>
       </c>
       <c s="1" r="H222">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I222">
-        <v>198.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="223">
@@ -7895,19 +7916,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B223">
-        <v>233949.0</v>
+        <v>234191.0</v>
       </c>
       <c t="s" s="1" r="C223">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c s="1" r="D223">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E223">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c s="1" r="F223">
-        <v>8532.0</v>
+        <v>116.0</v>
       </c>
       <c s="1" r="G223">
         <v>0.0</v>
@@ -7924,19 +7945,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B224">
-        <v>234191.0</v>
+        <v>445683.0</v>
       </c>
       <c t="s" s="1" r="C224">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c s="1" r="D224">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E224">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c s="1" r="F224">
-        <v>116.0</v>
+        <v>78.0</v>
       </c>
       <c s="1" r="G224">
         <v>0.0</v>
@@ -7953,28 +7974,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B225">
-        <v>445683.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C225">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c s="1" r="D225">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E225">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c s="1" r="F225">
-        <v>78.0</v>
+        <v>2155.0</v>
       </c>
       <c s="1" r="G225">
         <v>0.0</v>
       </c>
       <c s="1" r="H225">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c s="1" r="I225">
-        <v>0.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="226">
@@ -7982,28 +8003,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B226">
-        <v>234207.0</v>
+        <v>234225.0</v>
       </c>
       <c t="s" s="1" r="C226">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c s="1" r="D226">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E226">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c s="1" r="F226">
-        <v>2155.0</v>
+        <v>100.0</v>
       </c>
       <c s="1" r="G226">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H226">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I226">
-        <v>56.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="227">
@@ -8011,22 +8032,22 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B227">
-        <v>234225.0</v>
+        <v>448628.0</v>
       </c>
       <c t="s" s="1" r="C227">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c s="1" r="D227">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E227">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c s="1" r="F227">
-        <v>100.0</v>
+        <v>451.0</v>
       </c>
       <c s="1" r="G227">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H227">
         <v>0.0</v>
@@ -8040,19 +8061,19 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B228">
-        <v>448628.0</v>
+        <v>447069.0</v>
       </c>
       <c t="s" s="1" r="C228">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c s="1" r="D228">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E228">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c s="1" r="F228">
-        <v>451.0</v>
+        <v>418.0</v>
       </c>
       <c s="1" r="G228">
         <v>0.0</v>
@@ -8069,28 +8090,28 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B229">
-        <v>447069.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C229">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c s="1" r="D229">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E229">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c s="1" r="F229">
-        <v>418.0</v>
+        <v>237.0</v>
       </c>
       <c s="1" r="G229">
         <v>0.0</v>
       </c>
       <c s="1" r="H229">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c s="1" r="I229">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="230">
@@ -8098,56 +8119,27 @@
         <v>2008.0</v>
       </c>
       <c s="1" r="B230">
-        <v>234359.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C230">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c s="1" r="D230">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E230">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c s="1" r="F230">
-        <v>237.0</v>
+        <v>3363.0</v>
       </c>
       <c s="1" r="G230">
         <v>0.0</v>
       </c>
       <c s="1" r="H230">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I230">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c s="1" r="A231">
-        <v>2008.0</v>
-      </c>
-      <c s="1" r="B231">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C231">
-        <v>466</v>
-      </c>
-      <c s="1" r="D231">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E231">
-        <v>467</v>
-      </c>
-      <c s="1" r="F231">
-        <v>3363.0</v>
-      </c>
-      <c s="1" r="G231">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H231">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I231">
         <v>0.0</v>
       </c>
     </row>
